--- a/export/v1.0.7a/biome-raw.xlsx
+++ b/export/v1.0.7a/biome-raw.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Biome Objects" sheetId="1" r:id="rId1"/>
     <sheet name="Plants" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>CODE</t>
   </si>
@@ -598,7 +598,7 @@
     <t>BOB_GOLD_DEPOSIT_CONCRETE</t>
   </si>
   <si>
-    <t>IRON_PLATE 800, SCREW 193, COPPER_BAR 128, COPPER_WIRE 347, DIODE 102, GOLD_RAW 1151,  MICROCHIP 28, CHEM_WASTE 103</t>
+    <t xml:space="preserve">IRON_PLATE 800, SCREW 193, COPPER_BAR 128, COPPER_WIRE 347, DIODE 102, GOLD_RAW 1151,  MICROCHIP 28, CHEM_WASTE 103</t>
   </si>
   <si>
     <t>Gold Deposit ConcreteBiome</t>
@@ -830,7 +830,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -898,36 +899,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1136,17 +1137,17 @@
     <col min="1" max="1" width="34.15234375" customWidth="1"/>
     <col min="2" max="2" width="37.23046875" customWidth="1"/>
     <col min="3" max="3" width="13.4609375" customWidth="1"/>
-    <col min="4" max="4" width="15.07421875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.07421875" customWidth="1" style="1"/>
+    <col min="5" max="5" width="10" customWidth="1" style="1"/>
     <col min="6" max="6" width="20.15234375" customWidth="1"/>
     <col min="7" max="7" width="139.53515625" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.4609375" style="1"/>
+    <col min="8" max="8" width="9" customWidth="1" style="1"/>
+    <col min="9" max="9" width="11.4609375" customWidth="1" style="1"/>
     <col min="10" max="10" width="15.69140625" customWidth="1"/>
     <col min="11" max="11" width="17.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="18.45" x14ac:dyDescent="0.3">
+    <row r="1" ht="18.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1235,885 +1236,885 @@
       <c r="BJ1" s="6"/>
       <c r="BK1" s="6"/>
     </row>
-    <row r="2" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" ht="12.45">
+      <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="4" ht="12.45">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" ht="12.45">
+      <c r="A5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" ht="12.45">
+      <c r="A6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" ht="12.45">
+      <c r="A7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" ht="12.45">
+      <c r="A8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" ht="12.45">
+      <c r="A9" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="0" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" ht="12.45">
+      <c r="A10" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" ht="12.45">
+      <c r="A11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" ht="12.45">
+      <c r="A12" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" ht="12.45">
+      <c r="A13" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" ht="12.45">
+      <c r="A14" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" ht="12.45">
+      <c r="A15" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:63" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" ht="12.45">
+      <c r="A16" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" ht="12.45">
+      <c r="A17" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" ht="12.45">
+      <c r="A18" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" ht="12.45">
+      <c r="A19" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" ht="12.45">
+      <c r="A20" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" ht="12.45">
+      <c r="A21" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" ht="12.45">
+      <c r="A22" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" ht="12.45">
+      <c r="A23" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="0" t="s">
         <v>81</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="0" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" ht="12.45">
+      <c r="A24" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" ht="12.45">
+      <c r="A25" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>87</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" ht="12.45">
+      <c r="A26" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="0" t="s">
         <v>92</v>
       </c>
       <c r="I26" s="1">
         <v>5</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="0" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" ht="12.45">
+      <c r="A27" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="0" t="s">
         <v>97</v>
       </c>
       <c r="I27" s="1">
         <v>5</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="0" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.45" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="28" ht="12.45"/>
+    <row r="29" ht="12.45">
       <c r="A29" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" ht="12.45">
+      <c r="A30" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>101</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="0" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" ht="12.45">
+      <c r="A31" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>104</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="0" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" ht="12.45">
+      <c r="A32" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>107</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="0" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" ht="12.45">
+      <c r="A33" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>110</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" ht="12.45">
+      <c r="A34" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="0" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" ht="12.45">
+      <c r="A35" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>115</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="37" ht="12.45">
       <c r="A37" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" ht="12.45">
+      <c r="A38" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" ht="12.45">
+      <c r="A39" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" ht="12.45">
+      <c r="A40" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="42" ht="12.45">
       <c r="A42" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" ht="12.45">
+      <c r="A43" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="0" t="s">
         <v>128</v>
       </c>
       <c r="I43" s="1">
         <v>1</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="0" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" ht="12.45">
+      <c r="A44" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="0" t="s">
         <v>132</v>
       </c>
       <c r="I44" s="1">
         <v>1</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="0" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" ht="12.45">
+      <c r="A45" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="0" t="s">
         <v>136</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="0" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" ht="12.45">
+      <c r="A46" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="0" t="s">
         <v>140</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="0" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="12.45" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="47" ht="12.45"/>
+    <row r="48" ht="12.45">
       <c r="A48" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" ht="12.45">
+      <c r="A49" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="0" t="s">
         <v>145</v>
       </c>
       <c r="I49" s="1">
         <v>15</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="0" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" ht="12.45">
+      <c r="A50" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="0" t="s">
         <v>145</v>
       </c>
       <c r="I50" s="1">
         <v>15</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="0" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" ht="12.45">
+      <c r="A51" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="0" t="s">
         <v>150</v>
       </c>
       <c r="I51" s="1">
         <v>15</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="0" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" ht="12.45">
+      <c r="A52" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="0" t="s">
         <v>97</v>
       </c>
       <c r="I52" s="1">
         <v>25</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="0" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" ht="12.45">
+      <c r="A53" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="0" t="s">
         <v>156</v>
       </c>
       <c r="I53" s="1">
         <v>10</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="0" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" ht="12.45">
+      <c r="A54" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="0" t="s">
         <v>160</v>
       </c>
       <c r="I54" s="1">
         <v>30</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="0" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" ht="12.45">
+      <c r="A55" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I55" s="1">
         <v>30</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="0" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" ht="12.45">
+      <c r="A56" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="0" t="s">
         <v>167</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -2122,118 +2123,118 @@
       <c r="I56" s="1">
         <v>30</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="0" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" ht="12.45">
+      <c r="A57" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="0" t="s">
         <v>171</v>
       </c>
       <c r="I57" s="1">
         <v>25</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="0" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" ht="12.45">
+      <c r="A58" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="0" t="s">
         <v>174</v>
       </c>
       <c r="I58" s="1">
         <v>25</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="0" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" ht="12.45">
+      <c r="A59" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="0" t="s">
         <v>178</v>
       </c>
       <c r="I59" s="1">
         <v>40</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" ht="12.45">
+      <c r="A60" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="0" t="s">
         <v>182</v>
       </c>
       <c r="I60" s="1">
         <v>20</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="0" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="12.9" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="61" ht="12.9">
+      <c r="A61" s="0" t="s">
         <v>184</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I61" s="1">
         <v>10</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="0" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" ht="12.45">
+      <c r="A62" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="0" t="s">
         <v>91</v>
       </c>
       <c r="G62" s="6" t="s">
@@ -2242,49 +2243,49 @@
       <c r="I62" s="1">
         <v>50</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="0" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="63" ht="12.45">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="64" ht="12.45">
       <c r="A64" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" ht="12.45">
+      <c r="A65" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="0" t="s">
         <v>195</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="0" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" ht="12.45">
+      <c r="A66" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="0" t="s">
         <v>167</v>
       </c>
       <c r="H66" s="1" t="s">
@@ -2293,21 +2294,21 @@
       <c r="I66" s="1">
         <v>30</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="0" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" ht="12.45">
+      <c r="A67" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="0" t="s">
         <v>167</v>
       </c>
       <c r="H67" s="1" t="s">
@@ -2316,21 +2317,21 @@
       <c r="I67" s="1">
         <v>30</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="0" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" ht="12.45">
+      <c r="A68" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="0" t="s">
         <v>167</v>
       </c>
       <c r="H68" s="1" t="s">
@@ -2339,21 +2340,21 @@
       <c r="I68" s="1">
         <v>30</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="0" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" ht="12.45">
+      <c r="A69" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="0" t="s">
         <v>167</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -2362,188 +2363,189 @@
       <c r="I69" s="1">
         <v>30</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="0" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" ht="12.45">
+      <c r="A70" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="0" t="s">
         <v>194</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="0" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" ht="12.45">
+      <c r="A71" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="0" t="s">
         <v>194</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="0" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72" ht="12.45">
+      <c r="A72" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="0" t="s">
         <v>194</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="0" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73" ht="12.45">
+      <c r="A73" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="0" t="s">
         <v>194</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="0" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74" ht="12.45">
+      <c r="A74" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="0" t="s">
         <v>194</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="0" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75" ht="12.45">
+      <c r="A75" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="0" t="s">
         <v>194</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" s="0" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="76" ht="12.45">
+      <c r="A76" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="0" t="s">
         <v>194</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" s="0" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77" ht="12.45">
+      <c r="A77" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="0" t="s">
         <v>194</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="0" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="78" ht="12.45">
+      <c r="A78" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="0" t="s">
         <v>194</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="0" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="79" ht="12.45">
+      <c r="A79" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="0" t="s">
         <v>194</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="0" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80" ht="12.45">
+      <c r="A80" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="0" t="s">
         <v>194</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="0" t="s">
         <v>226</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2558,10 +2560,10 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.07421875" customWidth="1"/>
-    <col min="9" max="9" width="11.53515625" style="1"/>
+    <col min="9" max="9" width="11.53515625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="18.45" x14ac:dyDescent="0.3">
+    <row r="1" ht="18.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2662,7 +2664,7 @@
       <c r="BL1" s="9"/>
       <c r="BM1" s="9"/>
     </row>
-    <row r="2" spans="1:65" ht="30.9" x14ac:dyDescent="0.3">
+    <row r="2" ht="30.9">
       <c r="A2" s="10" t="s">
         <v>243</v>
       </c>
@@ -2760,44 +2762,44 @@
       <c r="BL2" s="10"/>
       <c r="BM2" s="10"/>
     </row>
-    <row r="3" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" ht="12.45">
+      <c r="A3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="0">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0">
+        <v>5</v>
+      </c>
+      <c r="F3" s="0">
         <v>60</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>120</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>90</v>
       </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="0">
+        <v>5</v>
+      </c>
+      <c r="K3" s="0">
         <v>15</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="0">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="0">
         <v>100</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="0">
         <v>15</v>
       </c>
       <c r="O3" s="11" t="s">
@@ -2807,44 +2809,44 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" ht="12.45">
+      <c r="A4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="0">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0">
+        <v>5</v>
+      </c>
+      <c r="F4" s="0">
         <v>60</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>120</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>90</v>
       </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="0">
+        <v>5</v>
+      </c>
+      <c r="K4" s="0">
         <v>15</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="0">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0">
         <v>25</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="0">
         <v>5</v>
       </c>
       <c r="O4" s="11" t="s">
@@ -2854,44 +2856,44 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" ht="12.45">
+      <c r="A5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="0">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0">
         <v>60</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>120</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="0">
         <v>80</v>
       </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="0">
+        <v>5</v>
+      </c>
+      <c r="K5" s="0">
         <v>10</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="0">
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="0">
         <v>50</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="0">
         <v>15</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -2901,44 +2903,44 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" ht="12.45">
+      <c r="A6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="0">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0">
+        <v>5</v>
+      </c>
+      <c r="F6" s="0">
         <v>60</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>120</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>90</v>
       </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="0">
+        <v>5</v>
+      </c>
+      <c r="K6" s="0">
         <v>15</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="0">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="0">
         <v>100</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="0">
         <v>15</v>
       </c>
       <c r="O6" s="11" t="s">
@@ -2948,44 +2950,44 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" ht="12.45">
+      <c r="A7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>0.6</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="0">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0">
+        <v>5</v>
+      </c>
+      <c r="F7" s="0">
         <v>60</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>120</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>85</v>
       </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="0">
+        <v>5</v>
+      </c>
+      <c r="K7" s="0">
         <v>20</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="0">
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0">
         <v>100</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="0">
         <v>15</v>
       </c>
       <c r="O7" s="11" t="s">
@@ -2995,47 +2997,47 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" ht="12.45">
+      <c r="A8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>0.4</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="0">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0">
+        <v>5</v>
+      </c>
+      <c r="F8" s="0">
         <v>60</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>120</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>95</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="0">
+        <v>5</v>
+      </c>
+      <c r="K8" s="0">
         <v>20</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="0">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0">
         <v>100</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="0">
         <v>15</v>
       </c>
       <c r="O8" s="11" t="s">
@@ -3045,47 +3047,47 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" ht="12.45">
+      <c r="A9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>0.15</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="0">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0">
+        <v>5</v>
+      </c>
+      <c r="F9" s="0">
         <v>60</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>120</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>95</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0">
         <v>10</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="0">
         <v>30</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="0">
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="0">
         <v>100</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="0">
         <v>15</v>
       </c>
       <c r="O9" s="11" t="s">
@@ -3095,47 +3097,47 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" ht="12.45">
+      <c r="A10" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>0.1</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="0">
+        <v>5</v>
+      </c>
+      <c r="E10" s="0">
+        <v>5</v>
+      </c>
+      <c r="F10" s="0">
         <v>60</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>120</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>90</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="0">
+        <v>5</v>
+      </c>
+      <c r="K10" s="0">
         <v>15</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="0">
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="0">
         <v>100</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0">
         <v>15</v>
       </c>
       <c r="O10" s="11" t="s">
@@ -3145,44 +3147,44 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" ht="12.45">
+      <c r="A11" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>45</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>1.8</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="0">
+        <v>5</v>
+      </c>
+      <c r="E11" s="0">
+        <v>5</v>
+      </c>
+      <c r="F11" s="0">
         <v>60</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>120</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>80</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="0">
         <v>75</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="0">
         <v>400</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="0">
         <v>0</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="0">
         <v>100</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0">
         <v>15</v>
       </c>
       <c r="O11" s="11">
@@ -3192,44 +3194,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" ht="12.45">
+      <c r="A12" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>35</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>1.8</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="0">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0">
+        <v>5</v>
+      </c>
+      <c r="F12" s="0">
         <v>60</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>120</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>80</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="0">
         <v>75</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="0">
         <v>300</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="0">
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="0">
         <v>100</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0">
         <v>15</v>
       </c>
       <c r="O12" s="11">
@@ -3239,44 +3241,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" ht="12.45">
+      <c r="A13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>50</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>1.8</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="0">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0">
+        <v>5</v>
+      </c>
+      <c r="F13" s="0">
         <v>60</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>120</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>80</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="0">
         <v>75</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="0">
         <v>400</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="0">
         <v>0</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="0">
         <v>100</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="0">
         <v>15</v>
       </c>
       <c r="O13" s="11">
@@ -3286,44 +3288,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" ht="12.45">
+      <c r="A14" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>1.8</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
+      <c r="D14" s="0">
+        <v>5</v>
+      </c>
+      <c r="E14" s="0">
+        <v>5</v>
+      </c>
+      <c r="F14" s="0">
         <v>60</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>120</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>80</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="0">
         <v>75</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="0">
         <v>400</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="0">
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="0">
         <v>100</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="0">
         <v>15</v>
       </c>
       <c r="O14" s="11">
@@ -3333,44 +3335,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" ht="12.45">
+      <c r="A15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>0.5</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
+      <c r="D15" s="0">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0">
         <v>60</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>120</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>95</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="0">
         <v>10</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="0">
         <v>50</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="0">
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="0">
         <v>100</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0">
         <v>15</v>
       </c>
       <c r="O15" s="11">
@@ -3380,44 +3382,44 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:65" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" ht="12.45">
+      <c r="A16" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>0.5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
+      <c r="F16" s="0">
+        <v>5</v>
+      </c>
+      <c r="G16" s="0">
+        <v>5</v>
+      </c>
+      <c r="H16" s="0">
         <v>60</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="0">
         <v>50</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0">
         <v>120</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="0">
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="0">
         <v>10</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0">
         <v>10</v>
       </c>
       <c r="O16" s="11" t="s">
@@ -3427,48 +3429,48 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="17" ht="12.45">
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:17" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" ht="12.45">
+      <c r="A18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18">
+      <c r="D18" s="0">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0">
+        <v>5</v>
+      </c>
+      <c r="F18" s="0">
         <v>60</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>120</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>90</v>
       </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18">
+      <c r="J18" s="0">
+        <v>5</v>
+      </c>
+      <c r="K18" s="0">
         <v>15</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="0">
         <v>0</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="0">
         <v>30</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="0">
         <v>15</v>
       </c>
       <c r="O18" s="11" t="s">
@@ -3478,44 +3480,44 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" ht="12.45">
+      <c r="A19" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>0.2</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>0.1</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
+      <c r="D19" s="0">
+        <v>5</v>
+      </c>
+      <c r="E19" s="0">
+        <v>5</v>
+      </c>
+      <c r="F19" s="0">
         <v>60</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>120</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>60</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="0">
         <v>10</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="0">
         <v>30</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="0">
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="0">
         <v>60</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="0">
         <v>15</v>
       </c>
       <c r="O19" s="11">
@@ -3525,44 +3527,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" ht="12.45">
+      <c r="A20" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
+      <c r="F20" s="0">
+        <v>5</v>
+      </c>
+      <c r="G20" s="0">
+        <v>5</v>
+      </c>
+      <c r="H20" s="0">
         <v>85</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="0">
         <v>2</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="0">
         <v>80</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="0">
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="0">
         <v>10</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="0">
         <v>10</v>
       </c>
       <c r="O20" s="11" t="s">
@@ -3572,44 +3574,44 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" ht="12.45">
+      <c r="A21" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>0.2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
+      <c r="D21" s="0">
+        <v>5</v>
+      </c>
+      <c r="E21" s="0">
+        <v>5</v>
+      </c>
+      <c r="F21" s="0">
         <v>60</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>120</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>20</v>
       </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="0">
+        <v>5</v>
+      </c>
+      <c r="K21" s="0">
         <v>15</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="0">
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="0">
         <v>25</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="0">
         <v>10</v>
       </c>
       <c r="O21" s="11">
@@ -3619,44 +3621,44 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" ht="12.45">
+      <c r="A22" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>0.5</v>
       </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22">
+      <c r="D22" s="0">
+        <v>5</v>
+      </c>
+      <c r="E22" s="0">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0">
         <v>600</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>1800</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="0">
         <v>15</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0">
         <v>25</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="0">
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="0">
         <v>100</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="0">
         <v>10</v>
       </c>
       <c r="O22" s="11">
@@ -3666,147 +3668,147 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" ht="12.45">
+      <c r="A24" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>3</v>
       </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="0">
+        <v>5</v>
+      </c>
+      <c r="D24" s="0">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>1</v>
       </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
+      <c r="F24" s="0">
+        <v>5</v>
+      </c>
+      <c r="G24" s="0">
+        <v>5</v>
+      </c>
+      <c r="H24" s="0">
         <v>90</v>
       </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24">
+      <c r="J24" s="0">
+        <v>5</v>
+      </c>
+      <c r="K24" s="0">
         <v>100</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="0">
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="0">
         <v>100</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="0">
         <v>10</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="0">
         <v>1</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="0">
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" ht="12.45">
+      <c r="A26" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>3600</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>999999</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0">
         <v>80</v>
       </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26">
+      <c r="J26" s="0">
+        <v>5</v>
+      </c>
+      <c r="K26" s="0">
         <v>100</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="0">
         <v>0</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="0">
         <v>100</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="0">
         <v>10</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="0">
         <v>1</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="0">
         <v>3</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="12.45" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" ht="12.45">
+      <c r="A27" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>3600</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0">
         <v>999999</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="0">
         <v>80</v>
       </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
+      <c r="J27" s="0">
+        <v>5</v>
+      </c>
+      <c r="K27" s="0">
         <v>100</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="0">
         <v>0</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="0">
         <v>100</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="0">
         <v>10</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="0">
         <v>1</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="0">
         <v>3</v>
       </c>
       <c r="Q27" s="1" t="s">
@@ -3816,5 +3818,6 @@
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>